--- a/src/Chapter-6/案例01 批量升序排序一个工作簿中的所有工作表/产品销售统计表.xlsx
+++ b/src/Chapter-6/案例01 批量升序排序一个工作簿中的所有工作表/产品销售统计表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\example\05\对一个工作簿中的全部工作表批量求和\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MGF\Documents\GitHub\TianXiaPy\PyExcel\src\Chapter-6\案例01 批量升序排序一个工作簿中的所有工作表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F685AD9-51A8-482B-BCEE-5ED7839A6968}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECA799F-9578-4882-9B19-E505514A8F2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8850" windowHeight="7620" tabRatio="955" activeTab="4" xr2:uid="{5116E507-4C83-441A-A83F-5DECC1ADA7D3}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" tabRatio="955" activeTab="4" xr2:uid="{5116E507-4C83-441A-A83F-5DECC1ADA7D3}"/>
   </bookViews>
   <sheets>
     <sheet name="行李箱" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="背包" sheetId="4" r:id="rId4"/>
     <sheet name="单肩包" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,105 +29,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="28">
+  <si>
+    <t>月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本价(元/个)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售价(元/个)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售数量(个)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>产品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行李箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手提包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成本价（元/个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>销售价（元/个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>销售数量（个）</t>
-  </si>
-  <si>
-    <t>背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单肩包</t>
-  </si>
-  <si>
-    <t>手提包</t>
-  </si>
-  <si>
-    <t>钱包</t>
-  </si>
-  <si>
-    <t>行李箱</t>
-  </si>
-  <si>
-    <t>月份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月</t>
-  </si>
-  <si>
-    <t>3月</t>
-  </si>
-  <si>
-    <t>4月</t>
-  </si>
-  <si>
-    <t>5月</t>
-  </si>
-  <si>
-    <t>6月</t>
-  </si>
-  <si>
-    <t>7月</t>
-  </si>
-  <si>
-    <t>8月</t>
-  </si>
-  <si>
-    <t>9月</t>
-  </si>
-  <si>
-    <t>10月</t>
-  </si>
-  <si>
-    <t>11月</t>
-  </si>
-  <si>
-    <t>12月</t>
-  </si>
-  <si>
-    <t>月份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本价(元/个)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售价(元/个)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售数量(个)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售利润</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,36 +550,36 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="4">
         <v>22</v>
@@ -576,16 +588,16 @@
         <v>88</v>
       </c>
       <c r="E2" s="2">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="F2" s="4">
-        <v>9900</v>
+        <v>4620</v>
       </c>
       <c r="G2" s="4">
-        <v>39600</v>
+        <v>18480</v>
       </c>
       <c r="H2" s="4">
-        <v>29700</v>
+        <v>13860</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -593,7 +605,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4">
         <v>22</v>
@@ -602,24 +614,24 @@
         <v>88</v>
       </c>
       <c r="E3" s="2">
-        <v>850</v>
+        <v>240</v>
       </c>
       <c r="F3" s="4">
-        <v>18700</v>
+        <v>5280</v>
       </c>
       <c r="G3" s="4">
-        <v>74800</v>
+        <v>21120</v>
       </c>
       <c r="H3" s="4">
-        <v>56100</v>
+        <v>15840</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4">
         <v>22</v>
@@ -628,24 +640,24 @@
         <v>88</v>
       </c>
       <c r="E4" s="2">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="F4" s="4">
-        <v>12100</v>
+        <v>9900</v>
       </c>
       <c r="G4" s="4">
-        <v>48400</v>
+        <v>39600</v>
       </c>
       <c r="H4" s="4">
-        <v>36300</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4">
         <v>22</v>
@@ -654,24 +666,24 @@
         <v>88</v>
       </c>
       <c r="E5" s="2">
-        <v>210</v>
+        <v>550</v>
       </c>
       <c r="F5" s="4">
-        <v>4620</v>
+        <v>12100</v>
       </c>
       <c r="G5" s="4">
-        <v>18480</v>
+        <v>48400</v>
       </c>
       <c r="H5" s="4">
-        <v>13860</v>
+        <v>36300</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4">
         <v>22</v>
@@ -680,24 +692,24 @@
         <v>88</v>
       </c>
       <c r="E6" s="2">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F6" s="4">
-        <v>17600</v>
+        <v>13200</v>
       </c>
       <c r="G6" s="4">
-        <v>70400</v>
+        <v>52800</v>
       </c>
       <c r="H6" s="4">
-        <v>52800</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4">
         <v>22</v>
@@ -706,24 +718,24 @@
         <v>88</v>
       </c>
       <c r="E7" s="2">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="F7" s="4">
-        <v>14520</v>
+        <v>13200</v>
       </c>
       <c r="G7" s="4">
-        <v>58080</v>
+        <v>52800</v>
       </c>
       <c r="H7" s="4">
-        <v>43560</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4">
         <v>22</v>
@@ -732,24 +744,24 @@
         <v>88</v>
       </c>
       <c r="E8" s="2">
-        <v>240</v>
+        <v>660</v>
       </c>
       <c r="F8" s="4">
-        <v>5280</v>
+        <v>14520</v>
       </c>
       <c r="G8" s="4">
-        <v>21120</v>
+        <v>58080</v>
       </c>
       <c r="H8" s="4">
-        <v>15840</v>
+        <v>43560</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4">
         <v>22</v>
@@ -758,24 +770,24 @@
         <v>88</v>
       </c>
       <c r="E9" s="2">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F9" s="4">
-        <v>13200</v>
+        <v>15400</v>
       </c>
       <c r="G9" s="4">
-        <v>52800</v>
+        <v>61600</v>
       </c>
       <c r="H9" s="4">
-        <v>39600</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4">
         <v>22</v>
@@ -784,24 +796,24 @@
         <v>88</v>
       </c>
       <c r="E10" s="2">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F10" s="4">
-        <v>13200</v>
+        <v>17600</v>
       </c>
       <c r="G10" s="4">
+        <v>70400</v>
+      </c>
+      <c r="H10" s="4">
         <v>52800</v>
-      </c>
-      <c r="H10" s="4">
-        <v>39600</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4">
         <v>22</v>
@@ -824,10 +836,10 @@
     </row>
     <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4">
         <v>22</v>
@@ -836,24 +848,24 @@
         <v>88</v>
       </c>
       <c r="E12" s="2">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="F12" s="4">
-        <v>15400</v>
+        <v>18700</v>
       </c>
       <c r="G12" s="4">
-        <v>61600</v>
+        <v>74800</v>
       </c>
       <c r="H12" s="4">
-        <v>46200</v>
+        <v>56100</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4">
         <v>22</v>
@@ -903,36 +915,36 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4">
         <v>90</v>
@@ -941,27 +953,24 @@
         <v>187</v>
       </c>
       <c r="E2" s="2">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="F2" s="4">
-        <f>C2*E2</f>
-        <v>45000</v>
+        <v>32400</v>
       </c>
       <c r="G2" s="4">
-        <f>D2*E2</f>
-        <v>93500</v>
+        <v>67320</v>
       </c>
       <c r="H2" s="4">
-        <f>G2-F2</f>
-        <v>48500</v>
+        <v>34920</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4">
         <v>90</v>
@@ -970,27 +979,24 @@
         <v>187</v>
       </c>
       <c r="E3" s="2">
-        <v>780</v>
+        <v>450</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F13" si="0">C3*E3</f>
-        <v>70200</v>
+        <v>40500</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G13" si="1">D3*E3</f>
-        <v>145860</v>
+        <v>84150</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H13" si="2">G3-F3</f>
-        <v>75660</v>
+        <v>43650</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4">
         <v>90</v>
@@ -999,27 +1005,24 @@
         <v>187</v>
       </c>
       <c r="E4" s="2">
-        <v>1000</v>
+        <v>478</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>43020</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" si="1"/>
-        <v>187000</v>
+        <v>89386</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" si="2"/>
-        <v>97000</v>
+        <v>46366</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4">
         <v>90</v>
@@ -1028,27 +1031,24 @@
         <v>187</v>
       </c>
       <c r="E5" s="2">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>32400</v>
+        <v>43200</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="1"/>
-        <v>67320</v>
+        <v>89760</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="2"/>
-        <v>34920</v>
+        <v>46560</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4">
         <v>90</v>
@@ -1057,27 +1057,24 @@
         <v>187</v>
       </c>
       <c r="E6" s="2">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="0"/>
-        <v>40500</v>
+        <v>45000</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="1"/>
-        <v>84150</v>
+        <v>93500</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="2"/>
-        <v>43650</v>
+        <v>48500</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4">
         <v>90</v>
@@ -1086,27 +1083,24 @@
         <v>187</v>
       </c>
       <c r="E7" s="2">
-        <v>700</v>
+        <v>560</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>63000</v>
+        <v>50400</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="1"/>
-        <v>130900</v>
+        <v>104720</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="2"/>
-        <v>67900</v>
+        <v>54320</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4">
         <v>90</v>
@@ -1115,27 +1109,24 @@
         <v>187</v>
       </c>
       <c r="E8" s="2">
-        <v>480</v>
+        <v>569</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="0"/>
-        <v>43200</v>
+        <v>51210</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="1"/>
-        <v>89760</v>
+        <v>106403</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="2"/>
-        <v>46560</v>
+        <v>55193</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4">
         <v>90</v>
@@ -1144,27 +1135,24 @@
         <v>187</v>
       </c>
       <c r="E9" s="2">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="0"/>
-        <v>50400</v>
+        <v>54000</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="1"/>
-        <v>104720</v>
+        <v>112200</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="2"/>
-        <v>54320</v>
+        <v>58200</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4">
         <v>90</v>
@@ -1173,19 +1161,16 @@
         <v>187</v>
       </c>
       <c r="E10" s="2">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="0"/>
-        <v>54000</v>
+        <v>63000</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="1"/>
-        <v>112200</v>
+        <v>130900</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="2"/>
-        <v>58200</v>
+        <v>67900</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1193,7 +1178,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4">
         <v>90</v>
@@ -1202,27 +1187,24 @@
         <v>187</v>
       </c>
       <c r="E11" s="2">
-        <v>478</v>
+        <v>780</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="0"/>
-        <v>43020</v>
+        <v>70200</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="1"/>
-        <v>89386</v>
+        <v>145860</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="2"/>
-        <v>46366</v>
+        <v>75660</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4">
         <v>90</v>
@@ -1234,24 +1216,21 @@
         <v>800</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="0"/>
         <v>72000</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="1"/>
         <v>149600</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="2"/>
         <v>77600</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C13" s="4">
         <v>90</v>
@@ -1260,19 +1239,16 @@
         <v>187</v>
       </c>
       <c r="E13" s="2">
-        <v>569</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="0"/>
-        <v>51210</v>
+        <v>90000</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="1"/>
-        <v>106403</v>
+        <v>187000</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="2"/>
-        <v>55193</v>
+        <v>97000</v>
       </c>
     </row>
   </sheetData>
@@ -1299,36 +1275,36 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4">
         <v>36</v>
@@ -1337,27 +1313,24 @@
         <v>147</v>
       </c>
       <c r="E2" s="2">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F2" s="4">
-        <f>C2*E2</f>
-        <v>9360</v>
+        <v>9000</v>
       </c>
       <c r="G2" s="4">
-        <f>D2*E2</f>
-        <v>38220</v>
+        <v>36750</v>
       </c>
       <c r="H2" s="4">
-        <f>G2-F2</f>
-        <v>28860</v>
+        <v>27750</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4">
         <v>36</v>
@@ -1366,27 +1339,24 @@
         <v>147</v>
       </c>
       <c r="E3" s="2">
-        <v>520</v>
+        <v>258</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F13" si="0">C3*E3</f>
-        <v>18720</v>
+        <v>9288</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G13" si="1">D3*E3</f>
-        <v>76440</v>
+        <v>37926</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H13" si="2">G3-F3</f>
-        <v>57720</v>
+        <v>28638</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4">
         <v>36</v>
@@ -1395,27 +1365,24 @@
         <v>147</v>
       </c>
       <c r="E4" s="2">
-        <v>450</v>
+        <v>260</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" si="0"/>
-        <v>16200</v>
+        <v>9360</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" si="1"/>
-        <v>66150</v>
+        <v>38220</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" si="2"/>
-        <v>49950</v>
+        <v>28860</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4">
         <v>36</v>
@@ -1424,27 +1391,24 @@
         <v>147</v>
       </c>
       <c r="E5" s="2">
-        <v>890</v>
+        <v>360</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>32040</v>
+        <v>12960</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="1"/>
-        <v>130830</v>
+        <v>52920</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="2"/>
-        <v>98790</v>
+        <v>39960</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4">
         <v>36</v>
@@ -1453,27 +1417,24 @@
         <v>147</v>
       </c>
       <c r="E6" s="2">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="0"/>
-        <v>12960</v>
+        <v>16200</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="1"/>
-        <v>52920</v>
+        <v>66150</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="2"/>
-        <v>39960</v>
+        <v>49950</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4">
         <v>36</v>
@@ -1482,27 +1443,24 @@
         <v>147</v>
       </c>
       <c r="E7" s="2">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>19800</v>
+        <v>18720</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="1"/>
-        <v>80850</v>
+        <v>76440</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="2"/>
-        <v>61050</v>
+        <v>57720</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4">
         <v>36</v>
@@ -1511,27 +1469,24 @@
         <v>147</v>
       </c>
       <c r="E8" s="2">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>19800</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="1"/>
-        <v>36750</v>
+        <v>80850</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="2"/>
-        <v>27750</v>
+        <v>61050</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4">
         <v>36</v>
@@ -1540,27 +1495,24 @@
         <v>147</v>
       </c>
       <c r="E9" s="2">
-        <v>780</v>
+        <v>600</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="0"/>
-        <v>28080</v>
+        <v>21600</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="1"/>
-        <v>114660</v>
+        <v>88200</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="2"/>
-        <v>86580</v>
+        <v>66600</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4">
         <v>36</v>
@@ -1569,27 +1521,24 @@
         <v>147</v>
       </c>
       <c r="E10" s="2">
-        <v>860</v>
+        <v>780</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="0"/>
-        <v>30960</v>
+        <v>28080</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="1"/>
-        <v>126420</v>
+        <v>114660</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="2"/>
-        <v>95460</v>
+        <v>86580</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4">
         <v>36</v>
@@ -1598,27 +1547,24 @@
         <v>147</v>
       </c>
       <c r="E11" s="2">
-        <v>900</v>
+        <v>860</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="0"/>
-        <v>32400</v>
+        <v>30960</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="1"/>
-        <v>132300</v>
+        <v>126420</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="2"/>
-        <v>99900</v>
+        <v>95460</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4">
         <v>36</v>
@@ -1627,27 +1573,24 @@
         <v>147</v>
       </c>
       <c r="E12" s="2">
-        <v>258</v>
+        <v>890</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="0"/>
-        <v>9288</v>
+        <v>32040</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="1"/>
-        <v>37926</v>
+        <v>130830</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="2"/>
-        <v>28638</v>
+        <v>98790</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4">
         <v>36</v>
@@ -1656,19 +1599,16 @@
         <v>147</v>
       </c>
       <c r="E13" s="2">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="0"/>
-        <v>21600</v>
+        <v>32400</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="1"/>
-        <v>88200</v>
+        <v>132300</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="2"/>
-        <v>66600</v>
+        <v>99900</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1698,36 +1638,36 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="4">
         <v>16</v>
@@ -1736,24 +1676,24 @@
         <v>65</v>
       </c>
       <c r="E2" s="2">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="F2" s="4">
-        <v>9600</v>
+        <v>2400</v>
       </c>
       <c r="G2" s="4">
-        <v>39000</v>
+        <v>9750</v>
       </c>
       <c r="H2" s="4">
-        <v>29400</v>
+        <v>7350</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4">
         <v>16</v>
@@ -1779,7 +1719,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4">
         <v>16</v>
@@ -1802,10 +1742,10 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4">
         <v>16</v>
@@ -1814,24 +1754,24 @@
         <v>65</v>
       </c>
       <c r="E5" s="2">
-        <v>690</v>
+        <v>350</v>
       </c>
       <c r="F5" s="4">
-        <v>11040</v>
+        <v>5600</v>
       </c>
       <c r="G5" s="4">
-        <v>44850</v>
+        <v>22750</v>
       </c>
       <c r="H5" s="4">
-        <v>33810</v>
+        <v>17150</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4">
         <v>16</v>
@@ -1840,24 +1780,24 @@
         <v>65</v>
       </c>
       <c r="E6" s="2">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="F6" s="4">
-        <v>8800</v>
+        <v>6400</v>
       </c>
       <c r="G6" s="4">
-        <v>35750</v>
+        <v>26000</v>
       </c>
       <c r="H6" s="4">
-        <v>26950</v>
+        <v>19600</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4">
         <v>16</v>
@@ -1866,24 +1806,24 @@
         <v>65</v>
       </c>
       <c r="E7" s="2">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="F7" s="4">
-        <v>8960</v>
+        <v>8800</v>
       </c>
       <c r="G7" s="4">
-        <v>36400</v>
+        <v>35750</v>
       </c>
       <c r="H7" s="4">
-        <v>27440</v>
+        <v>26950</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4">
         <v>16</v>
@@ -1892,24 +1832,24 @@
         <v>65</v>
       </c>
       <c r="E8" s="2">
-        <v>150</v>
+        <v>560</v>
       </c>
       <c r="F8" s="4">
-        <v>2400</v>
+        <v>8960</v>
       </c>
       <c r="G8" s="4">
-        <v>9750</v>
+        <v>36400</v>
       </c>
       <c r="H8" s="4">
-        <v>7350</v>
+        <v>27440</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4">
         <v>16</v>
@@ -1918,24 +1858,24 @@
         <v>65</v>
       </c>
       <c r="E9" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F9" s="4">
-        <v>6400</v>
+        <v>9600</v>
       </c>
       <c r="G9" s="4">
-        <v>26000</v>
+        <v>39000</v>
       </c>
       <c r="H9" s="4">
-        <v>19600</v>
+        <v>29400</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4">
         <v>16</v>
@@ -1944,24 +1884,24 @@
         <v>65</v>
       </c>
       <c r="E10" s="2">
-        <v>350</v>
+        <v>630</v>
       </c>
       <c r="F10" s="4">
-        <v>5600</v>
+        <v>10080</v>
       </c>
       <c r="G10" s="4">
-        <v>22750</v>
+        <v>40950</v>
       </c>
       <c r="H10" s="4">
-        <v>17150</v>
+        <v>30870</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4">
         <v>16</v>
@@ -1970,24 +1910,24 @@
         <v>65</v>
       </c>
       <c r="E11" s="2">
-        <v>750</v>
+        <v>690</v>
       </c>
       <c r="F11" s="4">
-        <v>12000</v>
+        <v>11040</v>
       </c>
       <c r="G11" s="4">
-        <v>48750</v>
+        <v>44850</v>
       </c>
       <c r="H11" s="4">
-        <v>36750</v>
+        <v>33810</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4">
         <v>16</v>
@@ -1996,24 +1936,24 @@
         <v>65</v>
       </c>
       <c r="E12" s="2">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="F12" s="4">
-        <v>12800</v>
+        <v>12000</v>
       </c>
       <c r="G12" s="4">
-        <v>52000</v>
+        <v>48750</v>
       </c>
       <c r="H12" s="4">
-        <v>39200</v>
+        <v>36750</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4">
         <v>16</v>
@@ -2022,16 +1962,16 @@
         <v>65</v>
       </c>
       <c r="E13" s="2">
-        <v>630</v>
+        <v>800</v>
       </c>
       <c r="F13" s="4">
-        <v>10080</v>
+        <v>12800</v>
       </c>
       <c r="G13" s="4">
-        <v>40950</v>
+        <v>52000</v>
       </c>
       <c r="H13" s="4">
-        <v>30870</v>
+        <v>39200</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2065,36 +2005,36 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4">
         <v>58</v>
@@ -2103,27 +2043,24 @@
         <v>124</v>
       </c>
       <c r="E2" s="2">
-        <v>630</v>
+        <v>145</v>
       </c>
       <c r="F2" s="4">
-        <f>C2*E2</f>
-        <v>36540</v>
+        <v>8410</v>
       </c>
       <c r="G2" s="4">
-        <f>D2*E2</f>
-        <v>78120</v>
+        <v>17980</v>
       </c>
       <c r="H2" s="4">
-        <f>G2-F2</f>
-        <v>41580</v>
+        <v>9570</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C3" s="4">
         <v>58</v>
@@ -2132,27 +2069,24 @@
         <v>124</v>
       </c>
       <c r="E3" s="2">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F13" si="0">C3*E3</f>
-        <v>33640</v>
+        <v>11600</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G13" si="1">D3*E3</f>
-        <v>71920</v>
+        <v>24800</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H13" si="2">G3-F3</f>
-        <v>38280</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4">
         <v>58</v>
@@ -2164,24 +2098,21 @@
         <v>200</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" si="0"/>
         <v>11600</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" si="1"/>
         <v>24800</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" si="2"/>
         <v>13200</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4">
         <v>58</v>
@@ -2190,19 +2121,16 @@
         <v>124</v>
       </c>
       <c r="E5" s="2">
-        <v>630</v>
+        <v>250</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>36540</v>
+        <v>14500</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="1"/>
-        <v>78120</v>
+        <v>31000</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="2"/>
-        <v>41580</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2210,7 +2138,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4">
         <v>58</v>
@@ -2219,27 +2147,24 @@
         <v>124</v>
       </c>
       <c r="E6" s="2">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="0"/>
-        <v>34800</v>
+        <v>29000</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="1"/>
-        <v>74400</v>
+        <v>62000</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="2"/>
-        <v>39600</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4">
         <v>58</v>
@@ -2248,27 +2173,24 @@
         <v>124</v>
       </c>
       <c r="E7" s="2">
-        <v>780</v>
+        <v>580</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>45240</v>
+        <v>33640</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="1"/>
-        <v>96720</v>
+        <v>71920</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="2"/>
-        <v>51480</v>
+        <v>38280</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4">
         <v>58</v>
@@ -2277,27 +2199,24 @@
         <v>124</v>
       </c>
       <c r="E8" s="2">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="0"/>
-        <v>11600</v>
+        <v>34800</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="1"/>
-        <v>24800</v>
+        <v>74400</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="2"/>
-        <v>13200</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4">
         <v>58</v>
@@ -2306,27 +2225,24 @@
         <v>124</v>
       </c>
       <c r="E9" s="2">
-        <v>690</v>
+        <v>630</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="0"/>
-        <v>40020</v>
+        <v>36540</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="1"/>
-        <v>85560</v>
+        <v>78120</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="2"/>
-        <v>45540</v>
+        <v>41580</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4">
         <v>58</v>
@@ -2335,27 +2251,24 @@
         <v>124</v>
       </c>
       <c r="E10" s="2">
-        <v>500</v>
+        <v>630</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="0"/>
-        <v>29000</v>
+        <v>36540</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="1"/>
-        <v>62000</v>
+        <v>78120</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="2"/>
-        <v>33000</v>
+        <v>41580</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4">
         <v>58</v>
@@ -2364,27 +2277,24 @@
         <v>124</v>
       </c>
       <c r="E11" s="2">
-        <v>870</v>
+        <v>690</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="0"/>
-        <v>50460</v>
+        <v>40020</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="1"/>
-        <v>107880</v>
+        <v>85560</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="2"/>
-        <v>57420</v>
+        <v>45540</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4">
         <v>58</v>
@@ -2393,27 +2303,24 @@
         <v>124</v>
       </c>
       <c r="E12" s="2">
-        <v>145</v>
+        <v>780</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="0"/>
-        <v>8410</v>
+        <v>45240</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="1"/>
-        <v>17980</v>
+        <v>96720</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="2"/>
-        <v>9570</v>
+        <v>51480</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4">
         <v>58</v>
@@ -2422,19 +2329,16 @@
         <v>124</v>
       </c>
       <c r="E13" s="2">
-        <v>250</v>
+        <v>870</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="0"/>
-        <v>14500</v>
+        <v>50460</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="1"/>
-        <v>31000</v>
+        <v>107880</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="2"/>
-        <v>16500</v>
+        <v>57420</v>
       </c>
     </row>
   </sheetData>
